--- a/System_Integration_v_1.6.4.xlsx
+++ b/System_Integration_v_1.6.4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AB08F8-DDA4-9948-9245-FFEE80D7BBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8A8F84-B7AA-544C-BD29-11F3BEAFAC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="integration_system" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="179">
   <si>
     <t>System Integration (v 1.6.4)</t>
   </si>
@@ -537,14 +537,37 @@
   </si>
   <si>
     <t>Users Added - Metric [Windows System Security]</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Content Name</t>
+  </si>
+  <si>
+    <t>Regualatory Policy</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -572,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -581,9 +604,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -925,37 +951,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E374"/>
+  <dimension ref="A1:E375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D374" sqref="D374"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="88" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="30" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="88" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -965,12 +991,14 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -980,12 +1008,12 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -995,14 +1023,12 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
+      <c r="C4" s="4"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1012,12 +1038,14 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1027,14 +1055,12 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1044,12 +1070,14 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1059,12 +1087,12 @@
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1074,14 +1102,12 @@
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1091,12 +1117,14 @@
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1106,12 +1134,12 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1121,12 +1149,12 @@
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1136,12 +1164,12 @@
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1151,14 +1179,12 @@
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
+      <c r="C14" s="4"/>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1168,12 +1194,14 @@
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1183,12 +1211,12 @@
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1198,14 +1226,12 @@
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1215,12 +1241,14 @@
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1230,12 +1258,12 @@
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1245,8 +1273,12 @@
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1256,14 +1288,8 @@
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>20</v>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1273,12 +1299,14 @@
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1288,12 +1316,12 @@
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1303,10 +1331,8 @@
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1321,7 +1347,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1332,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1342,14 +1374,8 @@
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>9</v>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1359,12 +1385,14 @@
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1374,14 +1402,12 @@
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1391,12 +1417,14 @@
       <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
+      <c r="C30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1406,12 +1434,12 @@
       <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1421,14 +1449,12 @@
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>3</v>
+      <c r="C32" s="4"/>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1438,12 +1464,14 @@
       <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="1" t="s">
-        <v>5</v>
+      <c r="C33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1453,12 +1481,12 @@
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1468,14 +1496,12 @@
       <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>3</v>
+      <c r="C35" s="4"/>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1485,12 +1511,14 @@
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="1" t="s">
-        <v>5</v>
+      <c r="C36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1500,12 +1528,12 @@
       <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1513,16 +1541,14 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1532,12 +1558,14 @@
       <c r="B39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1547,14 +1575,12 @@
       <c r="B40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1564,12 +1590,14 @@
       <c r="B41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="1" t="s">
-        <v>5</v>
+      <c r="C41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1579,12 +1607,12 @@
       <c r="B42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1594,14 +1622,12 @@
       <c r="B43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>3</v>
+      <c r="C43" s="4"/>
+      <c r="D43" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1611,12 +1637,14 @@
       <c r="B44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="1" t="s">
-        <v>5</v>
+      <c r="C44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1626,12 +1654,12 @@
       <c r="B45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1641,14 +1669,12 @@
       <c r="B46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>3</v>
+      <c r="C46" s="4"/>
+      <c r="D46" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1658,12 +1684,14 @@
       <c r="B47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="1" t="s">
-        <v>5</v>
+      <c r="C47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1673,12 +1701,12 @@
       <c r="B48" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1688,14 +1716,12 @@
       <c r="B49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>3</v>
+      <c r="C49" s="4"/>
+      <c r="D49" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1705,12 +1731,14 @@
       <c r="B50" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="1" t="s">
-        <v>5</v>
+      <c r="C50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1720,12 +1748,12 @@
       <c r="B51" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1735,14 +1763,12 @@
       <c r="B52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>3</v>
+      <c r="C52" s="4"/>
+      <c r="D52" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1752,12 +1778,14 @@
       <c r="B53" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D53" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1767,14 +1795,12 @@
       <c r="B54" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="C54" s="4"/>
       <c r="D54" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1784,12 +1810,14 @@
       <c r="B55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="1" t="s">
-        <v>5</v>
+      <c r="C55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1799,12 +1827,12 @@
       <c r="B56" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1814,14 +1842,12 @@
       <c r="B57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>3</v>
+      <c r="C57" s="4"/>
+      <c r="D57" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1831,12 +1857,14 @@
       <c r="B58" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="1" t="s">
-        <v>5</v>
+      <c r="C58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1846,12 +1874,12 @@
       <c r="B59" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1861,10 +1889,8 @@
       <c r="B60" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -1878,14 +1904,14 @@
       <c r="B61" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>3</v>
+      <c r="C61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1895,12 +1921,14 @@
       <c r="B62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1910,12 +1938,12 @@
       <c r="B63" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1925,12 +1953,12 @@
       <c r="B64" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1940,12 +1968,12 @@
       <c r="B65" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1955,14 +1983,12 @@
       <c r="B66" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>3</v>
+      <c r="C66" s="4"/>
+      <c r="D66" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1972,12 +1998,14 @@
       <c r="B67" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D67" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1987,14 +2015,12 @@
       <c r="B68" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C68" s="4"/>
       <c r="D68" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2004,12 +2030,14 @@
       <c r="B69" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="1" t="s">
-        <v>5</v>
+      <c r="C69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2019,12 +2047,12 @@
       <c r="B70" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2032,10 +2060,14 @@
         <v>0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2045,14 +2077,8 @@
       <c r="B72" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>20</v>
+      <c r="C72" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2062,12 +2088,14 @@
       <c r="B73" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="1" t="s">
-        <v>5</v>
+      <c r="C73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2077,12 +2105,12 @@
       <c r="B74" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2092,14 +2120,12 @@
       <c r="B75" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>3</v>
+      <c r="C75" s="4"/>
+      <c r="D75" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2109,12 +2135,14 @@
       <c r="B76" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="1" t="s">
-        <v>5</v>
+      <c r="C76" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2124,12 +2152,12 @@
       <c r="B77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="4"/>
       <c r="D77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2139,10 +2167,8 @@
       <c r="B78" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="C78" s="4"/>
+      <c r="D78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -2156,14 +2182,14 @@
       <c r="B79" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>49</v>
+      <c r="C79" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2173,12 +2199,14 @@
       <c r="B80" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="1" t="s">
-        <v>5</v>
+      <c r="C80" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2188,12 +2216,12 @@
       <c r="B81" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2203,14 +2231,12 @@
       <c r="B82" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>3</v>
+      <c r="C82" s="4"/>
+      <c r="D82" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2220,12 +2246,14 @@
       <c r="B83" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D83" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2235,14 +2263,12 @@
       <c r="B84" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="C84" s="4"/>
       <c r="D84" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -2252,12 +2278,14 @@
       <c r="B85" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D85" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2267,8 +2295,12 @@
       <c r="B86" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>52</v>
+      <c r="C86" s="4"/>
+      <c r="D86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2278,14 +2310,8 @@
       <c r="B87" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>4</v>
+      <c r="C87" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2295,12 +2321,14 @@
       <c r="B88" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="1" t="s">
-        <v>5</v>
+      <c r="C88" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2310,12 +2338,12 @@
       <c r="B89" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="4"/>
       <c r="D89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2325,14 +2353,12 @@
       <c r="B90" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>3</v>
+      <c r="C90" s="4"/>
+      <c r="D90" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2342,12 +2368,14 @@
       <c r="B91" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="1" t="s">
-        <v>5</v>
+      <c r="C91" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2357,12 +2385,12 @@
       <c r="B92" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C92" s="3"/>
+      <c r="C92" s="4"/>
       <c r="D92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2372,14 +2400,12 @@
       <c r="B93" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>3</v>
+      <c r="C93" s="4"/>
+      <c r="D93" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2389,12 +2415,14 @@
       <c r="B94" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="1" t="s">
-        <v>5</v>
+      <c r="C94" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2404,12 +2432,12 @@
       <c r="B95" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="4"/>
       <c r="D95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2419,14 +2447,12 @@
       <c r="B96" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>3</v>
+      <c r="C96" s="4"/>
+      <c r="D96" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2436,12 +2462,14 @@
       <c r="B97" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D97" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2451,8 +2479,12 @@
       <c r="B98" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>57</v>
+      <c r="C98" s="4"/>
+      <c r="D98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2463,13 +2495,7 @@
         <v>44</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2479,14 +2505,14 @@
       <c r="B100" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>59</v>
+      <c r="C100" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2496,12 +2522,14 @@
       <c r="B101" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="1" t="s">
-        <v>5</v>
+      <c r="C101" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2511,12 +2539,12 @@
       <c r="B102" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="4"/>
       <c r="D102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2526,14 +2554,12 @@
       <c r="B103" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>3</v>
+      <c r="C103" s="4"/>
+      <c r="D103" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2543,12 +2569,14 @@
       <c r="B104" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C104" s="3"/>
+      <c r="C104" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D104" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2558,14 +2586,12 @@
       <c r="B105" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="C105" s="4"/>
       <c r="D105" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2575,12 +2601,14 @@
       <c r="B106" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="1" t="s">
-        <v>5</v>
+      <c r="C106" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2590,12 +2618,12 @@
       <c r="B107" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C107" s="3"/>
+      <c r="C107" s="4"/>
       <c r="D107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2605,14 +2633,12 @@
       <c r="B108" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>3</v>
+      <c r="C108" s="4"/>
+      <c r="D108" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2622,12 +2648,14 @@
       <c r="B109" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="1" t="s">
-        <v>5</v>
+      <c r="C109" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2637,12 +2665,12 @@
       <c r="B110" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C110" s="3"/>
+      <c r="C110" s="4"/>
       <c r="D110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2652,14 +2680,12 @@
       <c r="B111" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>3</v>
+      <c r="C111" s="4"/>
+      <c r="D111" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2669,12 +2695,14 @@
       <c r="B112" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D112" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2684,14 +2712,12 @@
       <c r="B113" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="C113" s="4"/>
       <c r="D113" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2701,12 +2727,14 @@
       <c r="B114" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D114" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2716,8 +2744,12 @@
       <c r="B115" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>65</v>
+      <c r="C115" s="4"/>
+      <c r="D115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2727,14 +2759,8 @@
       <c r="B116" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>4</v>
+      <c r="C116" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2744,12 +2770,14 @@
       <c r="B117" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="1" t="s">
-        <v>5</v>
+      <c r="C117" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -2759,12 +2787,12 @@
       <c r="B118" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C118" s="3"/>
+      <c r="C118" s="4"/>
       <c r="D118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2774,14 +2802,12 @@
       <c r="B119" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>3</v>
+      <c r="C119" s="4"/>
+      <c r="D119" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -2791,12 +2817,14 @@
       <c r="B120" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C120" s="3"/>
+      <c r="C120" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="D120" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -2806,14 +2834,12 @@
       <c r="B121" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="C121" s="4"/>
       <c r="D121" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -2823,12 +2849,14 @@
       <c r="B122" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="1" t="s">
-        <v>5</v>
+      <c r="C122" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -2838,12 +2866,12 @@
       <c r="B123" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="4"/>
       <c r="D123" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -2853,8 +2881,12 @@
       <c r="B124" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>69</v>
+      <c r="C124" s="4"/>
+      <c r="D124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -2865,7 +2897,7 @@
         <v>44</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -2875,14 +2907,8 @@
       <c r="B126" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>4</v>
+      <c r="C126" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -2892,12 +2918,14 @@
       <c r="B127" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C127" s="3"/>
+      <c r="C127" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D127" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -2907,14 +2935,12 @@
       <c r="B128" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="C128" s="4"/>
       <c r="D128" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -2924,12 +2950,14 @@
       <c r="B129" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="1" t="s">
-        <v>5</v>
+      <c r="C129" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -2939,12 +2967,12 @@
       <c r="B130" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="4"/>
       <c r="D130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -2954,14 +2982,12 @@
       <c r="B131" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>3</v>
+      <c r="C131" s="4"/>
+      <c r="D131" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -2971,12 +2997,14 @@
       <c r="B132" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="3"/>
+      <c r="C132" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="D132" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -2986,8 +3014,12 @@
       <c r="B133" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>74</v>
+      <c r="C133" s="4"/>
+      <c r="D133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -2997,14 +3029,8 @@
       <c r="B134" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>9</v>
+      <c r="C134" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3014,12 +3040,14 @@
       <c r="B135" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="1" t="s">
-        <v>5</v>
+      <c r="C135" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -3029,12 +3057,12 @@
       <c r="B136" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C136" s="3"/>
+      <c r="C136" s="4"/>
       <c r="D136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -3044,12 +3072,12 @@
       <c r="B137" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="4"/>
       <c r="D137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3059,8 +3087,12 @@
       <c r="B138" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>76</v>
+      <c r="C138" s="4"/>
+      <c r="D138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3070,14 +3102,8 @@
       <c r="B139" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>4</v>
+      <c r="C139" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -3087,12 +3113,14 @@
       <c r="B140" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C140" s="3"/>
-      <c r="D140" s="1" t="s">
-        <v>5</v>
+      <c r="C140" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3102,12 +3130,12 @@
       <c r="B141" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C141" s="3"/>
+      <c r="C141" s="4"/>
       <c r="D141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3117,14 +3145,12 @@
       <c r="B142" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>3</v>
+      <c r="C142" s="4"/>
+      <c r="D142" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -3134,12 +3160,14 @@
       <c r="B143" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C143" s="3"/>
-      <c r="D143" s="1" t="s">
-        <v>5</v>
+      <c r="C143" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3149,12 +3177,12 @@
       <c r="B144" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C144" s="3"/>
+      <c r="C144" s="4"/>
       <c r="D144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -3164,14 +3192,12 @@
       <c r="B145" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>3</v>
+      <c r="C145" s="4"/>
+      <c r="D145" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -3181,12 +3207,14 @@
       <c r="B146" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C146" s="3"/>
-      <c r="D146" s="1" t="s">
-        <v>5</v>
+      <c r="C146" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -3196,12 +3224,12 @@
       <c r="B147" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="4"/>
       <c r="D147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -3211,14 +3239,12 @@
       <c r="B148" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>3</v>
+      <c r="C148" s="4"/>
+      <c r="D148" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -3228,12 +3254,14 @@
       <c r="B149" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C149" s="3"/>
-      <c r="D149" s="1" t="s">
-        <v>5</v>
+      <c r="C149" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -3243,12 +3271,12 @@
       <c r="B150" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C150" s="3"/>
+      <c r="C150" s="4"/>
       <c r="D150" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -3258,14 +3286,12 @@
       <c r="B151" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>3</v>
+      <c r="C151" s="4"/>
+      <c r="D151" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -3275,12 +3301,14 @@
       <c r="B152" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="1" t="s">
-        <v>5</v>
+      <c r="C152" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -3290,12 +3318,12 @@
       <c r="B153" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C153" s="3"/>
+      <c r="C153" s="4"/>
       <c r="D153" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -3305,8 +3333,12 @@
       <c r="B154" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>82</v>
+      <c r="C154" s="4"/>
+      <c r="D154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -3317,7 +3349,7 @@
         <v>44</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -3327,14 +3359,8 @@
       <c r="B156" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>13</v>
+      <c r="C156" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -3344,12 +3370,14 @@
       <c r="B157" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C157" s="3"/>
+      <c r="C157" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="D157" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -3359,12 +3387,12 @@
       <c r="B158" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C158" s="3"/>
+      <c r="C158" s="4"/>
       <c r="D158" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -3374,12 +3402,12 @@
       <c r="B159" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C159" s="3"/>
+      <c r="C159" s="4"/>
       <c r="D159" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -3389,12 +3417,12 @@
       <c r="B160" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="4"/>
       <c r="D160" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -3404,10 +3432,8 @@
       <c r="B161" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="C161" s="4"/>
+      <c r="D161" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E161" s="2" t="s">
@@ -3421,14 +3447,14 @@
       <c r="B162" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>86</v>
+      <c r="C162" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -3438,12 +3464,14 @@
       <c r="B163" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="1" t="s">
-        <v>5</v>
+      <c r="C163" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -3453,12 +3481,12 @@
       <c r="B164" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C164" s="3"/>
+      <c r="C164" s="4"/>
       <c r="D164" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -3468,14 +3496,12 @@
       <c r="B165" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C165" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>3</v>
+      <c r="C165" s="4"/>
+      <c r="D165" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -3485,12 +3511,14 @@
       <c r="B166" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C166" s="3"/>
+      <c r="C166" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="D166" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -3500,14 +3528,12 @@
       <c r="B167" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C167" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="C167" s="4"/>
       <c r="D167" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -3517,12 +3543,14 @@
       <c r="B168" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="1" t="s">
-        <v>5</v>
+      <c r="C168" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -3532,12 +3560,12 @@
       <c r="B169" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="4"/>
       <c r="D169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -3547,8 +3575,12 @@
       <c r="B170" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>89</v>
+      <c r="C170" s="4"/>
+      <c r="D170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -3558,14 +3590,8 @@
       <c r="B171" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>9</v>
+      <c r="C171" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -3575,12 +3601,14 @@
       <c r="B172" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C172" s="3"/>
-      <c r="D172" s="1" t="s">
-        <v>5</v>
+      <c r="C172" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -3590,12 +3618,12 @@
       <c r="B173" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C173" s="3"/>
+      <c r="C173" s="4"/>
       <c r="D173" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -3605,14 +3633,12 @@
       <c r="B174" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C174" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="C174" s="4"/>
       <c r="D174" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -3622,12 +3648,14 @@
       <c r="B175" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C175" s="3"/>
+      <c r="C175" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="D175" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -3637,12 +3665,12 @@
       <c r="B176" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C176" s="3"/>
+      <c r="C176" s="4"/>
       <c r="D176" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -3652,12 +3680,12 @@
       <c r="B177" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C177" s="3"/>
+      <c r="C177" s="4"/>
       <c r="D177" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -3667,12 +3695,12 @@
       <c r="B178" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C178" s="3"/>
+      <c r="C178" s="4"/>
       <c r="D178" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -3682,8 +3710,12 @@
       <c r="B179" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>92</v>
+      <c r="C179" s="4"/>
+      <c r="D179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -3693,14 +3725,8 @@
       <c r="B180" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>20</v>
+      <c r="C180" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -3710,12 +3736,14 @@
       <c r="B181" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C181" s="3"/>
-      <c r="D181" s="1" t="s">
-        <v>5</v>
+      <c r="C181" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -3725,12 +3753,12 @@
       <c r="B182" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C182" s="3"/>
+      <c r="C182" s="4"/>
       <c r="D182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -3740,14 +3768,12 @@
       <c r="B183" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C183" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>3</v>
+      <c r="C183" s="4"/>
+      <c r="D183" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -3757,12 +3783,14 @@
       <c r="B184" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C184" s="3"/>
-      <c r="D184" s="1" t="s">
-        <v>5</v>
+      <c r="C184" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -3772,12 +3800,12 @@
       <c r="B185" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C185" s="3"/>
+      <c r="C185" s="4"/>
       <c r="D185" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -3787,14 +3815,12 @@
       <c r="B186" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C186" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>3</v>
+      <c r="C186" s="4"/>
+      <c r="D186" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -3804,12 +3830,14 @@
       <c r="B187" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="1" t="s">
-        <v>5</v>
+      <c r="C187" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -3819,12 +3847,12 @@
       <c r="B188" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C188" s="3"/>
+      <c r="C188" s="4"/>
       <c r="D188" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -3834,14 +3862,12 @@
       <c r="B189" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C189" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>3</v>
+      <c r="C189" s="4"/>
+      <c r="D189" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -3851,12 +3877,14 @@
       <c r="B190" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="1" t="s">
-        <v>5</v>
+      <c r="C190" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -3866,12 +3894,12 @@
       <c r="B191" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C191" s="3"/>
+      <c r="C191" s="4"/>
       <c r="D191" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -3881,14 +3909,12 @@
       <c r="B192" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C192" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>3</v>
+      <c r="C192" s="4"/>
+      <c r="D192" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -3898,12 +3924,14 @@
       <c r="B193" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C193" s="3"/>
+      <c r="C193" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="D193" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -3913,14 +3941,12 @@
       <c r="B194" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C194" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="C194" s="4"/>
       <c r="D194" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -3930,12 +3956,14 @@
       <c r="B195" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C195" s="3"/>
+      <c r="C195" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D195" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -3945,14 +3973,12 @@
       <c r="B196" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C196" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="C196" s="4"/>
       <c r="D196" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -3962,12 +3988,14 @@
       <c r="B197" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C197" s="3"/>
+      <c r="C197" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D197" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -3977,8 +4005,12 @@
       <c r="B198" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>100</v>
+      <c r="C198" s="4"/>
+      <c r="D198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -3988,14 +4020,8 @@
       <c r="B199" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C199" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>20</v>
+      <c r="C199" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -4005,12 +4031,14 @@
       <c r="B200" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="1" t="s">
-        <v>5</v>
+      <c r="C200" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -4020,12 +4048,12 @@
       <c r="B201" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C201" s="3"/>
+      <c r="C201" s="4"/>
       <c r="D201" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -4035,14 +4063,12 @@
       <c r="B202" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C202" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>3</v>
+      <c r="C202" s="4"/>
+      <c r="D202" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -4052,12 +4078,14 @@
       <c r="B203" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C203" s="3"/>
-      <c r="D203" s="1" t="s">
-        <v>5</v>
+      <c r="C203" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -4067,12 +4095,12 @@
       <c r="B204" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C204" s="3"/>
+      <c r="C204" s="4"/>
       <c r="D204" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -4082,14 +4110,12 @@
       <c r="B205" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C205" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>3</v>
+      <c r="C205" s="4"/>
+      <c r="D205" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -4099,12 +4125,14 @@
       <c r="B206" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C206" s="3"/>
-      <c r="D206" s="1" t="s">
-        <v>5</v>
+      <c r="C206" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -4114,12 +4142,12 @@
       <c r="B207" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C207" s="3"/>
+      <c r="C207" s="4"/>
       <c r="D207" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -4129,14 +4157,12 @@
       <c r="B208" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C208" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>3</v>
+      <c r="C208" s="4"/>
+      <c r="D208" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -4146,12 +4172,14 @@
       <c r="B209" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C209" s="3"/>
-      <c r="D209" s="1" t="s">
-        <v>5</v>
+      <c r="C209" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -4161,12 +4189,12 @@
       <c r="B210" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C210" s="3"/>
+      <c r="C210" s="4"/>
       <c r="D210" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -4176,14 +4204,12 @@
       <c r="B211" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C211" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>3</v>
+      <c r="C211" s="4"/>
+      <c r="D211" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -4193,12 +4219,14 @@
       <c r="B212" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C212" s="3"/>
-      <c r="D212" s="1" t="s">
-        <v>5</v>
+      <c r="C212" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -4208,12 +4236,12 @@
       <c r="B213" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C213" s="3"/>
+      <c r="C213" s="4"/>
       <c r="D213" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -4223,8 +4251,12 @@
       <c r="B214" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>105</v>
+      <c r="C214" s="4"/>
+      <c r="D214" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -4234,14 +4266,8 @@
       <c r="B215" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C215" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>20</v>
+      <c r="C215" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -4251,12 +4277,14 @@
       <c r="B216" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C216" s="3"/>
-      <c r="D216" s="1" t="s">
-        <v>5</v>
+      <c r="C216" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -4266,12 +4294,12 @@
       <c r="B217" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C217" s="3"/>
+      <c r="C217" s="4"/>
       <c r="D217" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -4281,14 +4309,12 @@
       <c r="B218" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C218" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="C218" s="4"/>
       <c r="D218" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -4298,12 +4324,14 @@
       <c r="B219" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C219" s="3"/>
+      <c r="C219" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="D219" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -4313,12 +4341,12 @@
       <c r="B220" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C220" s="3"/>
+      <c r="C220" s="4"/>
       <c r="D220" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -4328,12 +4356,12 @@
       <c r="B221" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C221" s="3"/>
+      <c r="C221" s="4"/>
       <c r="D221" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -4343,8 +4371,12 @@
       <c r="B222" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>108</v>
+      <c r="C222" s="4"/>
+      <c r="D222" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -4355,7 +4387,7 @@
         <v>44</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -4365,14 +4397,8 @@
       <c r="B224" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C224" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>20</v>
+      <c r="C224" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -4382,12 +4408,14 @@
       <c r="B225" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C225" s="3"/>
-      <c r="D225" s="1" t="s">
-        <v>5</v>
+      <c r="C225" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -4397,12 +4425,12 @@
       <c r="B226" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C226" s="3"/>
+      <c r="C226" s="4"/>
       <c r="D226" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -4412,8 +4440,12 @@
       <c r="B227" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>111</v>
+      <c r="C227" s="4"/>
+      <c r="D227" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -4423,14 +4455,8 @@
       <c r="B228" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C228" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>20</v>
+      <c r="C228" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -4440,12 +4466,14 @@
       <c r="B229" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C229" s="3"/>
-      <c r="D229" s="1" t="s">
-        <v>5</v>
+      <c r="C229" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -4455,12 +4483,12 @@
       <c r="B230" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C230" s="3"/>
+      <c r="C230" s="4"/>
       <c r="D230" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -4470,14 +4498,12 @@
       <c r="B231" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C231" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>3</v>
+      <c r="C231" s="4"/>
+      <c r="D231" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -4487,12 +4513,14 @@
       <c r="B232" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C232" s="3"/>
+      <c r="C232" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D232" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -4502,14 +4530,12 @@
       <c r="B233" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C233" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="C233" s="4"/>
       <c r="D233" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -4519,12 +4545,14 @@
       <c r="B234" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C234" s="3"/>
-      <c r="D234" s="1" t="s">
-        <v>5</v>
+      <c r="C234" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -4534,12 +4562,12 @@
       <c r="B235" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C235" s="3"/>
+      <c r="C235" s="4"/>
       <c r="D235" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -4549,14 +4577,12 @@
       <c r="B236" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C236" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>3</v>
+      <c r="C236" s="4"/>
+      <c r="D236" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -4566,12 +4592,14 @@
       <c r="B237" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C237" s="3"/>
-      <c r="D237" s="1" t="s">
-        <v>5</v>
+      <c r="C237" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -4581,12 +4609,12 @@
       <c r="B238" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C238" s="3"/>
+      <c r="C238" s="4"/>
       <c r="D238" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -4596,10 +4624,8 @@
       <c r="B239" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D239" s="2" t="s">
+      <c r="C239" s="4"/>
+      <c r="D239" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E239" s="2" t="s">
@@ -4613,14 +4639,14 @@
       <c r="B240" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C240" s="3" t="s">
-        <v>116</v>
+      <c r="C240" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -4630,12 +4656,14 @@
       <c r="B241" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C241" s="3"/>
-      <c r="D241" s="1" t="s">
-        <v>5</v>
+      <c r="C241" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -4645,12 +4673,12 @@
       <c r="B242" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C242" s="3"/>
+      <c r="C242" s="4"/>
       <c r="D242" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -4660,14 +4688,12 @@
       <c r="B243" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C243" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>3</v>
+      <c r="C243" s="4"/>
+      <c r="D243" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -4677,12 +4703,14 @@
       <c r="B244" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C244" s="3"/>
-      <c r="D244" s="1" t="s">
-        <v>5</v>
+      <c r="C244" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -4692,12 +4720,12 @@
       <c r="B245" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C245" s="3"/>
+      <c r="C245" s="4"/>
       <c r="D245" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -4707,8 +4735,12 @@
       <c r="B246" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>118</v>
+      <c r="C246" s="4"/>
+      <c r="D246" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -4718,14 +4750,8 @@
       <c r="B247" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C247" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>20</v>
+      <c r="C247" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -4735,12 +4761,14 @@
       <c r="B248" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C248" s="3"/>
-      <c r="D248" s="1" t="s">
-        <v>5</v>
+      <c r="C248" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -4750,12 +4778,12 @@
       <c r="B249" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C249" s="3"/>
+      <c r="C249" s="4"/>
       <c r="D249" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -4765,14 +4793,12 @@
       <c r="B250" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C250" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>3</v>
+      <c r="C250" s="4"/>
+      <c r="D250" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -4782,12 +4808,14 @@
       <c r="B251" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C251" s="3"/>
-      <c r="D251" s="1" t="s">
-        <v>5</v>
+      <c r="C251" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -4797,12 +4825,12 @@
       <c r="B252" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C252" s="3"/>
+      <c r="C252" s="4"/>
       <c r="D252" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -4812,8 +4840,12 @@
       <c r="B253" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>121</v>
+      <c r="C253" s="4"/>
+      <c r="D253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -4824,7 +4856,7 @@
         <v>44</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -4835,7 +4867,7 @@
         <v>44</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -4846,7 +4878,7 @@
         <v>44</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -4857,7 +4889,7 @@
         <v>44</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -4868,13 +4900,7 @@
         <v>44</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -4885,7 +4911,13 @@
         <v>44</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -4896,13 +4928,7 @@
         <v>44</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -4912,14 +4938,14 @@
       <c r="B261" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C261" s="3" t="s">
-        <v>129</v>
+      <c r="C261" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -4929,12 +4955,14 @@
       <c r="B262" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C262" s="3"/>
-      <c r="D262" s="1" t="s">
-        <v>5</v>
+      <c r="C262" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -4944,12 +4972,12 @@
       <c r="B263" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C263" s="3"/>
+      <c r="C263" s="4"/>
       <c r="D263" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -4959,8 +4987,12 @@
       <c r="B264" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>130</v>
+      <c r="C264" s="4"/>
+      <c r="D264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -4970,14 +5002,8 @@
       <c r="B265" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C265" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>20</v>
+      <c r="C265" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -4987,12 +5013,14 @@
       <c r="B266" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C266" s="3"/>
-      <c r="D266" s="1" t="s">
-        <v>5</v>
+      <c r="C266" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -5002,12 +5030,12 @@
       <c r="B267" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C267" s="3"/>
+      <c r="C267" s="4"/>
       <c r="D267" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -5017,14 +5045,12 @@
       <c r="B268" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C268" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>3</v>
+      <c r="C268" s="4"/>
+      <c r="D268" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -5034,12 +5060,14 @@
       <c r="B269" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C269" s="3"/>
-      <c r="D269" s="1" t="s">
-        <v>5</v>
+      <c r="C269" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -5049,12 +5077,12 @@
       <c r="B270" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C270" s="3"/>
+      <c r="C270" s="4"/>
       <c r="D270" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -5064,14 +5092,12 @@
       <c r="B271" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C271" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>3</v>
+      <c r="C271" s="4"/>
+      <c r="D271" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -5081,12 +5107,14 @@
       <c r="B272" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C272" s="3"/>
+      <c r="C272" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="D272" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -5096,14 +5124,12 @@
       <c r="B273" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C273" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="C273" s="4"/>
       <c r="D273" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -5113,12 +5139,14 @@
       <c r="B274" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C274" s="3"/>
-      <c r="D274" s="1" t="s">
-        <v>5</v>
+      <c r="C274" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -5128,12 +5156,12 @@
       <c r="B275" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C275" s="3"/>
+      <c r="C275" s="4"/>
       <c r="D275" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -5143,8 +5171,12 @@
       <c r="B276" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C276" s="2" t="s">
-        <v>135</v>
+      <c r="C276" s="4"/>
+      <c r="D276" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -5154,14 +5186,8 @@
       <c r="B277" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C277" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>20</v>
+      <c r="C277" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -5171,12 +5197,14 @@
       <c r="B278" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C278" s="3"/>
-      <c r="D278" s="1" t="s">
-        <v>5</v>
+      <c r="C278" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -5186,12 +5214,12 @@
       <c r="B279" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C279" s="3"/>
+      <c r="C279" s="4"/>
       <c r="D279" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -5201,14 +5229,12 @@
       <c r="B280" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C280" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>3</v>
+      <c r="C280" s="4"/>
+      <c r="D280" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -5218,12 +5244,14 @@
       <c r="B281" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C281" s="3"/>
+      <c r="C281" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="D281" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -5233,14 +5261,12 @@
       <c r="B282" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C282" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="C282" s="4"/>
       <c r="D282" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -5250,12 +5276,14 @@
       <c r="B283" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C283" s="3"/>
-      <c r="D283" s="1" t="s">
-        <v>5</v>
+      <c r="C283" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -5265,12 +5293,12 @@
       <c r="B284" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C284" s="3"/>
+      <c r="C284" s="4"/>
       <c r="D284" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -5280,14 +5308,12 @@
       <c r="B285" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C285" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>3</v>
+      <c r="C285" s="4"/>
+      <c r="D285" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -5297,12 +5323,14 @@
       <c r="B286" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C286" s="3"/>
-      <c r="D286" s="1" t="s">
-        <v>5</v>
+      <c r="C286" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -5312,12 +5340,12 @@
       <c r="B287" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C287" s="3"/>
+      <c r="C287" s="4"/>
       <c r="D287" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -5327,14 +5355,12 @@
       <c r="B288" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C288" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>3</v>
+      <c r="C288" s="4"/>
+      <c r="D288" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -5344,12 +5370,14 @@
       <c r="B289" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C289" s="3"/>
-      <c r="D289" s="1" t="s">
-        <v>5</v>
+      <c r="C289" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -5359,12 +5387,12 @@
       <c r="B290" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C290" s="3"/>
+      <c r="C290" s="4"/>
       <c r="D290" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -5374,14 +5402,12 @@
       <c r="B291" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C291" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>3</v>
+      <c r="C291" s="4"/>
+      <c r="D291" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -5391,12 +5417,14 @@
       <c r="B292" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C292" s="3"/>
-      <c r="D292" s="1" t="s">
-        <v>5</v>
+      <c r="C292" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -5406,12 +5434,12 @@
       <c r="B293" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C293" s="3"/>
+      <c r="C293" s="4"/>
       <c r="D293" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -5421,14 +5449,12 @@
       <c r="B294" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C294" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>3</v>
+      <c r="C294" s="4"/>
+      <c r="D294" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -5438,12 +5464,14 @@
       <c r="B295" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C295" s="3"/>
-      <c r="D295" s="1" t="s">
-        <v>5</v>
+      <c r="C295" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -5453,12 +5481,12 @@
       <c r="B296" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C296" s="3"/>
+      <c r="C296" s="4"/>
       <c r="D296" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -5468,14 +5496,12 @@
       <c r="B297" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C297" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>3</v>
+      <c r="C297" s="4"/>
+      <c r="D297" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -5485,12 +5511,14 @@
       <c r="B298" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C298" s="3"/>
-      <c r="D298" s="1" t="s">
-        <v>5</v>
+      <c r="C298" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -5500,12 +5528,12 @@
       <c r="B299" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C299" s="3"/>
+      <c r="C299" s="4"/>
       <c r="D299" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -5515,8 +5543,12 @@
       <c r="B300" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>144</v>
+      <c r="C300" s="4"/>
+      <c r="D300" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -5526,14 +5558,8 @@
       <c r="B301" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C301" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>9</v>
+      <c r="C301" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -5543,12 +5569,14 @@
       <c r="B302" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C302" s="3"/>
-      <c r="D302" s="1" t="s">
-        <v>5</v>
+      <c r="C302" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -5558,12 +5586,12 @@
       <c r="B303" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C303" s="3"/>
+      <c r="C303" s="4"/>
       <c r="D303" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -5573,14 +5601,12 @@
       <c r="B304" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C304" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>3</v>
+      <c r="C304" s="4"/>
+      <c r="D304" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -5590,12 +5616,14 @@
       <c r="B305" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C305" s="3"/>
-      <c r="D305" s="1" t="s">
-        <v>5</v>
+      <c r="C305" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -5605,12 +5633,12 @@
       <c r="B306" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C306" s="3"/>
+      <c r="C306" s="4"/>
       <c r="D306" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -5620,8 +5648,12 @@
       <c r="B307" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>147</v>
+      <c r="C307" s="4"/>
+      <c r="D307" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -5632,7 +5664,7 @@
         <v>44</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -5642,14 +5674,8 @@
       <c r="B309" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C309" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>20</v>
+      <c r="C309" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -5659,12 +5685,14 @@
       <c r="B310" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C310" s="3"/>
-      <c r="D310" s="1" t="s">
-        <v>5</v>
+      <c r="C310" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -5674,12 +5702,12 @@
       <c r="B311" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C311" s="3"/>
+      <c r="C311" s="4"/>
       <c r="D311" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -5689,10 +5717,8 @@
       <c r="B312" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C312" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D312" s="2" t="s">
+      <c r="C312" s="4"/>
+      <c r="D312" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E312" s="2" t="s">
@@ -5706,14 +5732,14 @@
       <c r="B313" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C313" s="3" t="s">
-        <v>151</v>
+      <c r="C313" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -5723,12 +5749,14 @@
       <c r="B314" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C314" s="3"/>
-      <c r="D314" s="1" t="s">
-        <v>5</v>
+      <c r="C314" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -5738,12 +5766,12 @@
       <c r="B315" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C315" s="3"/>
+      <c r="C315" s="4"/>
       <c r="D315" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -5753,14 +5781,12 @@
       <c r="B316" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C316" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>3</v>
+      <c r="C316" s="4"/>
+      <c r="D316" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -5770,12 +5796,14 @@
       <c r="B317" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C317" s="3"/>
-      <c r="D317" s="1" t="s">
-        <v>5</v>
+      <c r="C317" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -5785,12 +5813,12 @@
       <c r="B318" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C318" s="3"/>
+      <c r="C318" s="4"/>
       <c r="D318" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -5800,8 +5828,12 @@
       <c r="B319" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C319" s="2" t="s">
-        <v>153</v>
+      <c r="C319" s="4"/>
+      <c r="D319" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -5812,7 +5844,7 @@
         <v>44</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -5822,14 +5854,8 @@
       <c r="B321" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C321" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>20</v>
+      <c r="C321" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -5839,12 +5865,14 @@
       <c r="B322" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C322" s="3"/>
-      <c r="D322" s="1" t="s">
-        <v>5</v>
+      <c r="C322" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -5854,12 +5882,12 @@
       <c r="B323" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C323" s="3"/>
+      <c r="C323" s="4"/>
       <c r="D323" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -5869,14 +5897,12 @@
       <c r="B324" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C324" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>3</v>
+      <c r="C324" s="4"/>
+      <c r="D324" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -5886,12 +5912,14 @@
       <c r="B325" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C325" s="3"/>
-      <c r="D325" s="1" t="s">
-        <v>5</v>
+      <c r="C325" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -5901,12 +5929,12 @@
       <c r="B326" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C326" s="3"/>
+      <c r="C326" s="4"/>
       <c r="D326" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -5916,8 +5944,12 @@
       <c r="B327" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C327" s="2" t="s">
-        <v>157</v>
+      <c r="C327" s="4"/>
+      <c r="D327" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -5927,14 +5959,8 @@
       <c r="B328" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C328" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>20</v>
+      <c r="C328" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -5944,12 +5970,14 @@
       <c r="B329" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C329" s="3"/>
-      <c r="D329" s="1" t="s">
-        <v>5</v>
+      <c r="C329" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -5959,12 +5987,12 @@
       <c r="B330" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C330" s="3"/>
+      <c r="C330" s="4"/>
       <c r="D330" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -5974,14 +6002,12 @@
       <c r="B331" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C331" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>3</v>
+      <c r="C331" s="4"/>
+      <c r="D331" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
@@ -5991,12 +6017,14 @@
       <c r="B332" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C332" s="3"/>
-      <c r="D332" s="1" t="s">
-        <v>5</v>
+      <c r="C332" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -6006,12 +6034,12 @@
       <c r="B333" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C333" s="3"/>
+      <c r="C333" s="4"/>
       <c r="D333" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -6021,14 +6049,12 @@
       <c r="B334" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C334" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="C334" s="4"/>
       <c r="D334" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -6038,12 +6064,14 @@
       <c r="B335" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C335" s="3"/>
+      <c r="C335" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="D335" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -6053,12 +6081,12 @@
       <c r="B336" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C336" s="3"/>
+      <c r="C336" s="4"/>
       <c r="D336" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -6068,12 +6096,12 @@
       <c r="B337" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C337" s="3"/>
+      <c r="C337" s="4"/>
       <c r="D337" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -6083,12 +6111,12 @@
       <c r="B338" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C338" s="3"/>
+      <c r="C338" s="4"/>
       <c r="D338" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -6098,8 +6126,12 @@
       <c r="B339" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>161</v>
+      <c r="C339" s="4"/>
+      <c r="D339" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -6109,14 +6141,8 @@
       <c r="B340" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C340" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E340" s="2" t="s">
-        <v>20</v>
+      <c r="C340" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -6126,12 +6152,14 @@
       <c r="B341" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C341" s="3"/>
-      <c r="D341" s="1" t="s">
-        <v>5</v>
+      <c r="C341" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -6141,12 +6169,12 @@
       <c r="B342" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C342" s="3"/>
+      <c r="C342" s="4"/>
       <c r="D342" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
@@ -6156,14 +6184,12 @@
       <c r="B343" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C343" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>3</v>
+      <c r="C343" s="4"/>
+      <c r="D343" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
@@ -6173,12 +6199,14 @@
       <c r="B344" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C344" s="3"/>
-      <c r="D344" s="1" t="s">
-        <v>5</v>
+      <c r="C344" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
@@ -6188,12 +6216,12 @@
       <c r="B345" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C345" s="3"/>
+      <c r="C345" s="4"/>
       <c r="D345" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -6203,14 +6231,12 @@
       <c r="B346" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C346" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>3</v>
+      <c r="C346" s="4"/>
+      <c r="D346" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -6220,12 +6246,14 @@
       <c r="B347" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C347" s="3"/>
-      <c r="D347" s="1" t="s">
-        <v>5</v>
+      <c r="C347" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
@@ -6235,12 +6263,12 @@
       <c r="B348" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C348" s="3"/>
+      <c r="C348" s="4"/>
       <c r="D348" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
@@ -6250,14 +6278,12 @@
       <c r="B349" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C349" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D349" s="2" t="s">
-        <v>3</v>
+      <c r="C349" s="4"/>
+      <c r="D349" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -6267,12 +6293,14 @@
       <c r="B350" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C350" s="3"/>
-      <c r="D350" s="1" t="s">
-        <v>5</v>
+      <c r="C350" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
@@ -6282,12 +6310,12 @@
       <c r="B351" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C351" s="3"/>
+      <c r="C351" s="4"/>
       <c r="D351" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
@@ -6297,12 +6325,12 @@
       <c r="B352" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C352" s="3"/>
+      <c r="C352" s="4"/>
       <c r="D352" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
@@ -6312,14 +6340,12 @@
       <c r="B353" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C353" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D353" s="2" t="s">
-        <v>3</v>
+      <c r="C353" s="4"/>
+      <c r="D353" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
@@ -6329,12 +6355,14 @@
       <c r="B354" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C354" s="3"/>
-      <c r="D354" s="1" t="s">
-        <v>5</v>
+      <c r="C354" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
@@ -6344,12 +6372,12 @@
       <c r="B355" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C355" s="3"/>
+      <c r="C355" s="4"/>
       <c r="D355" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
@@ -6359,14 +6387,12 @@
       <c r="B356" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C356" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D356" s="2" t="s">
-        <v>3</v>
+      <c r="C356" s="4"/>
+      <c r="D356" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -6376,12 +6402,14 @@
       <c r="B357" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C357" s="3"/>
-      <c r="D357" s="1" t="s">
-        <v>5</v>
+      <c r="C357" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
@@ -6391,12 +6419,12 @@
       <c r="B358" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C358" s="3"/>
+      <c r="C358" s="4"/>
       <c r="D358" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
@@ -6406,14 +6434,12 @@
       <c r="B359" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C359" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>3</v>
+      <c r="C359" s="4"/>
+      <c r="D359" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -6423,12 +6449,14 @@
       <c r="B360" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C360" s="3"/>
-      <c r="D360" s="1" t="s">
-        <v>5</v>
+      <c r="C360" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
@@ -6438,12 +6466,12 @@
       <c r="B361" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C361" s="3"/>
+      <c r="C361" s="4"/>
       <c r="D361" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -6453,14 +6481,12 @@
       <c r="B362" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C362" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>3</v>
+      <c r="C362" s="4"/>
+      <c r="D362" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
@@ -6470,12 +6496,14 @@
       <c r="B363" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C363" s="3"/>
-      <c r="D363" s="1" t="s">
-        <v>5</v>
+      <c r="C363" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
@@ -6485,12 +6513,12 @@
       <c r="B364" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C364" s="3"/>
+      <c r="C364" s="4"/>
       <c r="D364" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -6500,14 +6528,12 @@
       <c r="B365" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C365" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>3</v>
+      <c r="C365" s="4"/>
+      <c r="D365" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
@@ -6517,12 +6543,14 @@
       <c r="B366" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C366" s="3"/>
-      <c r="D366" s="1" t="s">
-        <v>5</v>
+      <c r="C366" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
@@ -6532,12 +6560,12 @@
       <c r="B367" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C367" s="3"/>
+      <c r="C367" s="4"/>
       <c r="D367" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
@@ -6547,8 +6575,12 @@
       <c r="B368" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C368" s="2" t="s">
-        <v>171</v>
+      <c r="C368" s="4"/>
+      <c r="D368" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -6558,14 +6590,8 @@
       <c r="B369" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C369" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E369" s="2" t="s">
-        <v>20</v>
+      <c r="C369" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
@@ -6575,12 +6601,14 @@
       <c r="B370" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C370" s="3"/>
-      <c r="D370" s="1" t="s">
-        <v>5</v>
+      <c r="C370" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
@@ -6590,12 +6618,12 @@
       <c r="B371" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C371" s="3"/>
+      <c r="C371" s="4"/>
       <c r="D371" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
@@ -6605,14 +6633,12 @@
       <c r="B372" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C372" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>3</v>
+      <c r="C372" s="4"/>
+      <c r="D372" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -6622,12 +6648,14 @@
       <c r="B373" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C373" s="3"/>
-      <c r="D373" s="1" t="s">
-        <v>5</v>
+      <c r="C373" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
@@ -6637,128 +6665,143 @@
       <c r="B374" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C374" s="3"/>
+      <c r="C374" s="4"/>
       <c r="D374" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E374" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C375" s="4"/>
+      <c r="D375" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E375" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="C372:C374"/>
-    <mergeCell ref="C356:C358"/>
-    <mergeCell ref="C359:C361"/>
-    <mergeCell ref="C362:C364"/>
-    <mergeCell ref="C365:C367"/>
-    <mergeCell ref="C369:C371"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="C343:C345"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="C349:C352"/>
-    <mergeCell ref="C353:C355"/>
-    <mergeCell ref="C321:C323"/>
-    <mergeCell ref="C324:C326"/>
-    <mergeCell ref="C328:C330"/>
-    <mergeCell ref="C331:C333"/>
-    <mergeCell ref="C334:C338"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="C309:C311"/>
-    <mergeCell ref="C313:C315"/>
-    <mergeCell ref="C316:C318"/>
-    <mergeCell ref="C285:C287"/>
-    <mergeCell ref="C288:C290"/>
-    <mergeCell ref="C291:C293"/>
-    <mergeCell ref="C294:C296"/>
-    <mergeCell ref="C297:C299"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="C273:C275"/>
-    <mergeCell ref="C277:C279"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="C282:C284"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="C247:C249"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="C261:C263"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="C228:C230"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="C233:C235"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="C211:C213"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="C202:C204"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="C186:C188"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="C167:C169"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="C135:C138"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="C175:C179"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="C216:C218"/>
+    <mergeCell ref="C219:C222"/>
+    <mergeCell ref="C225:C227"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="C206:C208"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="C244:C246"/>
+    <mergeCell ref="C248:C250"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="C262:C264"/>
+    <mergeCell ref="C266:C268"/>
+    <mergeCell ref="C229:C231"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="C234:C236"/>
+    <mergeCell ref="C237:C239"/>
+    <mergeCell ref="C241:C243"/>
+    <mergeCell ref="C286:C288"/>
+    <mergeCell ref="C289:C291"/>
+    <mergeCell ref="C292:C294"/>
+    <mergeCell ref="C295:C297"/>
+    <mergeCell ref="C298:C300"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="C274:C276"/>
+    <mergeCell ref="C278:C280"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="C283:C285"/>
+    <mergeCell ref="C322:C324"/>
+    <mergeCell ref="C325:C327"/>
+    <mergeCell ref="C329:C331"/>
+    <mergeCell ref="C332:C334"/>
+    <mergeCell ref="C335:C339"/>
+    <mergeCell ref="C302:C304"/>
+    <mergeCell ref="C305:C307"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="C314:C316"/>
+    <mergeCell ref="C317:C319"/>
+    <mergeCell ref="C373:C375"/>
+    <mergeCell ref="C357:C359"/>
+    <mergeCell ref="C360:C362"/>
+    <mergeCell ref="C363:C365"/>
+    <mergeCell ref="C366:C368"/>
+    <mergeCell ref="C370:C372"/>
+    <mergeCell ref="C341:C343"/>
+    <mergeCell ref="C344:C346"/>
+    <mergeCell ref="C347:C349"/>
+    <mergeCell ref="C350:C353"/>
+    <mergeCell ref="C354:C356"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
